--- a/Intermedio/practice-files/Sesión 1/Formatos.xlsx
+++ b/Intermedio/practice-files/Sesión 1/Formatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Ing. Software con AI\Excel\SESIÓN 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A36C6-3F69-43B8-93AD-F6AE453AE11D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA50595-709D-42F6-86B0-CB7195C21737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,20 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mh/isV6kPIswZ705U3DWYQzQn40TQ=="/>
     </ext>
@@ -109,122 +123,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> se coloca el carácter de relleno, puede ser un espacio en blanco o un carácter cualquiera.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"S/."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF17365D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">*  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #,##0.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"S/."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF17365D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>- #,##0.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"S/."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF17365D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. #,##0.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"S/."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF17365D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>* #,##0.00</t>
     </r>
   </si>
   <si>
@@ -479,12 +377,104 @@
   <si>
     <t>PROGRAMA</t>
   </si>
+  <si>
+    <r>
+      <t>"S/."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF17365D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #,##0.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"S/."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF17365D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- #,##0.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"S/."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF17365D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #,##0.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"S/."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF17365D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>* #,##0.00</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="64">
+  <numFmts count="65">
     <numFmt numFmtId="164" formatCode="####.#"/>
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#.000"/>
@@ -547,8 +537,9 @@
     <numFmt numFmtId="223" formatCode="&quot;Recibi la cantidad de: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
     <numFmt numFmtId="224" formatCode="&quot;El formato personalizado me permite hacer esto: &quot;#\ ###\ ###.00\ &quot;Soles&quot;"/>
     <numFmt numFmtId="225" formatCode="&quot;Monto acumulado: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
-    <numFmt numFmtId="227" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
-    <numFmt numFmtId="229" formatCode="&quot;Este &quot;\ @"/>
+    <numFmt numFmtId="226" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
+    <numFmt numFmtId="227" formatCode="&quot;Este &quot;\ @"/>
+    <numFmt numFmtId="232" formatCode="#.0000"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1296,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1633,6 +1624,10 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="223" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="224" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="225" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="226" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="227" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1674,10 +1669,11 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="225" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="227" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="229" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="232" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2285,9 +2281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2325,7 +2321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2431,7 +2427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2573,21 +2569,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -2595,11 +2591,11 @@
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1">
+    <row r="1" spans="1:10" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2613,13 +2609,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
     </row>
-    <row r="3" spans="1:7" ht="21">
+    <row r="3" spans="1:10" ht="21">
       <c r="A3" s="4">
         <v>3756.85</v>
       </c>
@@ -2631,9 +2627,15 @@
         <f t="shared" ref="D3:D6" si="0">A3</f>
         <v>3756.85</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8">
+        <v>2765.85</v>
+      </c>
+      <c r="H3" s="183">
+        <f>G3</f>
+        <v>2765.85</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="21">
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" s="4">
         <v>8.6</v>
       </c>
@@ -2646,8 +2648,15 @@
         <v>8.6</v>
       </c>
       <c r="E4" s="138"/>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="184">
+        <f>G4</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="21">
+    <row r="5" spans="1:10" ht="21">
       <c r="A5" s="4">
         <v>0.58399999999999996</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21">
+    <row r="6" spans="1:10" ht="21">
       <c r="A6" s="12">
         <v>0.5</v>
       </c>
@@ -2673,18 +2682,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="168"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
     </row>
-    <row r="8" spans="1:7" ht="21">
+    <row r="8" spans="1:10" ht="21">
       <c r="A8" s="4">
         <v>14</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="171" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15">
@@ -2692,116 +2701,149 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21">
+    <row r="9" spans="1:10" ht="21">
       <c r="A9" s="4">
         <v>5412.6350000000002</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="168"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>5412.6350000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A10" s="173"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1">
+    <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="A11" s="4">
         <v>28.568000000000001</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="171" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11:D13" si="2">A11</f>
         <v>28.568000000000001</v>
       </c>
-      <c r="E11" s="158" t="s">
+      <c r="E11" s="162" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="139">
-        <v>123.25</v>
+        <v>28.568000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21">
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" s="4">
         <v>256.52</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="170"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>256.52</v>
       </c>
-      <c r="E12" s="159"/>
+      <c r="E12" s="163"/>
       <c r="G12" s="139">
-        <v>157.238</v>
+        <v>256.52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21">
+    <row r="13" spans="1:10" ht="21">
       <c r="A13" s="4">
         <v>14.7</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="168"/>
+      <c r="C13" s="172"/>
       <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>14.7</v>
       </c>
-      <c r="E13" s="160"/>
+      <c r="E13" s="164"/>
       <c r="G13" s="139">
-        <v>28.1</v>
+        <v>14.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="168"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
       <c r="G14" s="139">
-        <v>1285.9993999999999</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1">
+    <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="4">
         <v>6.25</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="171" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="3">A15</f>
         <v>6.25</v>
       </c>
-      <c r="E15" s="158" t="s">
+      <c r="E15" s="162" t="s">
         <v>12</v>
       </c>
+      <c r="G15" s="139">
+        <v>6.25</v>
+      </c>
+      <c r="H15" s="186">
+        <f>G15</f>
+        <v>6.25</v>
+      </c>
+      <c r="I15" s="187">
+        <f>G15</f>
+        <v>6.25</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="21">
+    <row r="16" spans="1:10" ht="21">
       <c r="A16" s="4">
         <v>4.7</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="168"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="E16" s="160"/>
+      <c r="E16" s="164"/>
+      <c r="G16" s="139">
+        <v>4.7</v>
+      </c>
+      <c r="H16" s="186">
+        <f>G16</f>
+        <v>4.7</v>
+      </c>
+      <c r="I16">
+        <v>2.125</v>
+      </c>
+      <c r="J16" s="186">
+        <f>I16</f>
+        <v>2.125</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A17" s="168"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="I17">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="186">
+        <f>I17</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1">
+    <row r="18" spans="1:10" ht="21" customHeight="1">
       <c r="A18" s="4">
         <v>1256</v>
       </c>
@@ -2813,91 +2855,91 @@
         <f t="shared" ref="D18:D22" si="4">A18</f>
         <v>1256</v>
       </c>
-      <c r="E18" s="158" t="s">
+      <c r="E18" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="140">
+      <c r="G18" s="185">
         <v>1256</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.25">
+    <row r="19" spans="1:10" ht="26.25">
       <c r="A19" s="4">
         <v>1256</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="21" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D19" s="22">
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E19" s="159"/>
+      <c r="E19" s="163"/>
       <c r="G19" s="140">
         <v>1256</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="26.25">
+    <row r="20" spans="1:10" ht="26.25">
       <c r="A20" s="4">
         <v>1256</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="21" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D20" s="23">
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E20" s="159"/>
+      <c r="E20" s="163"/>
       <c r="G20" s="140">
         <v>1256</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>1256</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="21" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D21" s="24">
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E21" s="159"/>
+      <c r="E21" s="163"/>
       <c r="G21" s="140">
         <v>1256</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>1256</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="21" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E22" s="160"/>
+      <c r="E22" s="164"/>
       <c r="G22" s="140">
         <v>1256</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3881,8 +3923,9 @@
     <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3894,7 +3937,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
@@ -3905,19 +3948,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1">
       <c r="A1" s="110" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="111" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
@@ -3932,10 +3975,10 @@
         <v>120</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="118" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
@@ -3950,10 +3993,10 @@
         <v>62</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
@@ -3968,10 +4011,10 @@
         <v>189</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="123" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -4980,7 +5023,7 @@
       <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
@@ -4991,13 +5034,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="124" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
@@ -5008,8 +5051,8 @@
         <f t="shared" ref="B2:B5" si="0">A2</f>
         <v>14287</v>
       </c>
-      <c r="C2" s="177" t="s">
-        <v>89</v>
+      <c r="C2" s="181" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
@@ -5020,7 +5063,7 @@
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="C3" s="170"/>
+      <c r="C3" s="174"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="125">
@@ -5030,17 +5073,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="170"/>
+      <c r="C4" s="174"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="125" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="126" t="str">
         <f t="shared" si="0"/>
         <v>verano</v>
       </c>
-      <c r="C5" s="168"/>
+      <c r="C5" s="172"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="D8" s="153">
@@ -5062,7 +5105,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
@@ -5077,7 +5120,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="152" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6073,11 +6116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
@@ -6087,13 +6130,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1">
       <c r="A1" s="127" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6105,7 +6148,7 @@
         <v>1250</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6117,7 +6160,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6129,7 +6172,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="130" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6141,7 +6184,7 @@
         <v>1428</v>
       </c>
       <c r="C5" s="130" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6153,7 +6196,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="130" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6165,7 +6208,7 @@
         <v>25.6</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6177,7 +6220,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="130" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6188,8 +6231,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C9" s="178" t="s">
-        <v>98</v>
+      <c r="C9" s="182" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6200,7 +6243,7 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="C10" s="168"/>
+      <c r="C10" s="172"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="155">
@@ -6224,7 +6267,7 @@
       <c r="A15" s="155">
         <v>123564562</v>
       </c>
-      <c r="B15" s="180">
+      <c r="B15" s="159">
         <f>A15</f>
         <v>123564562</v>
       </c>
@@ -6233,16 +6276,16 @@
       <c r="A16" s="155">
         <v>123564562</v>
       </c>
-      <c r="B16" s="181">
+      <c r="B16" s="160">
         <f>A16</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
-      <c r="A17" s="179" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="182"/>
+      <c r="A17" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="161"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
@@ -7239,7 +7282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -7249,13 +7292,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
@@ -7267,7 +7310,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -7279,7 +7322,7 @@
         <v>12000</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -8300,7 +8343,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
@@ -8310,15 +8353,15 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="35">
         <v>100</v>
@@ -8326,7 +8369,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36">
         <v>100</v>
@@ -8334,7 +8377,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="37">
         <v>100</v>
@@ -8342,7 +8385,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="38">
         <v>100</v>
@@ -8350,7 +8393,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="39">
         <v>100</v>
@@ -8361,7 +8404,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="40">
         <v>100</v>
@@ -8369,7 +8412,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="41">
         <v>100</v>
@@ -9369,7 +9412,7 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="54.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -9380,21 +9423,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="44">
         <v>8</v>
@@ -9403,12 +9446,12 @@
         <v>14</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="46">
         <v>1250</v>
@@ -9417,12 +9460,12 @@
         <v>900</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23.25" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="47">
         <v>459</v>
@@ -9431,7 +9474,7 @@
         <v>500</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -10436,7 +10479,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -10446,10 +10489,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="63.75" customHeight="1">
       <c r="B2" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -11470,7 +11513,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
@@ -11480,13 +11523,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
@@ -11494,7 +11537,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="55">
         <f t="shared" ref="C2:C4" si="0">A2</f>
@@ -11506,7 +11549,7 @@
         <v>2.14</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="56">
         <f t="shared" si="0"/>
@@ -11518,7 +11561,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="0"/>
@@ -12522,7 +12565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -12531,10 +12574,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13559,7 +13602,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -13571,13 +13614,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="61" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13585,7 +13628,7 @@
         <v>29781</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="66">
         <f t="shared" ref="C2:C7" si="0">A2</f>
@@ -13593,7 +13636,7 @@
       </c>
       <c r="F2" s="146">
         <f ca="1">TODAY()</f>
-        <v>44344</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13601,7 +13644,7 @@
         <v>29934</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="66">
         <f t="shared" si="0"/>
@@ -13613,7 +13656,7 @@
         <v>29934</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="66">
         <f t="shared" si="0"/>
@@ -13625,7 +13668,7 @@
         <v>29934</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="67">
         <f t="shared" si="0"/>
@@ -13637,7 +13680,7 @@
         <v>29934</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="68">
         <f t="shared" si="0"/>
@@ -13649,7 +13692,7 @@
         <v>29934</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="69">
         <f t="shared" si="0"/>
@@ -13662,7 +13705,7 @@
       <c r="C8" s="72"/>
       <c r="F8" s="147">
         <f ca="1">TODAY()</f>
-        <v>44344</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13670,7 +13713,7 @@
         <v>30658</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="73">
         <f t="shared" ref="C9:C13" si="1">A9</f>
@@ -13682,7 +13725,7 @@
         <v>30678</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="73">
         <f t="shared" si="1"/>
@@ -13694,7 +13737,7 @@
         <v>30678</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="74">
         <f t="shared" si="1"/>
@@ -13706,7 +13749,7 @@
         <v>30678</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="75">
         <f t="shared" si="1"/>
@@ -13718,7 +13761,7 @@
         <v>30678</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="76">
         <f t="shared" si="1"/>
@@ -13735,7 +13778,7 @@
         <v>40519</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="77">
         <f t="shared" ref="C15:C16" si="2">A15</f>
@@ -13747,7 +13790,7 @@
         <v>40519</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="80">
         <f t="shared" si="2"/>
@@ -14748,7 +14791,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -14761,26 +14804,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="171" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="175" t="s">
-        <v>52</v>
+      <c r="A1" s="175" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="179" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" s="81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="176"/>
+        <v>63</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="83">
@@ -14788,7 +14831,7 @@
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="85" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" s="86">
         <f t="shared" ref="D3:D4" si="0">A3</f>
@@ -14801,7 +14844,7 @@
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="89" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="90">
         <f t="shared" si="0"/>
@@ -14816,7 +14859,7 @@
         <v>40374.083333333336</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="92">
         <f t="shared" ref="D5:D8" si="1">B5-A5</f>
@@ -14832,7 +14875,7 @@
         <v>40374.083333333336</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="92">
         <f t="shared" si="1"/>
@@ -14840,7 +14883,7 @@
       </c>
       <c r="G6" s="148">
         <f ca="1">NOW()</f>
-        <v>44344.695473032407</v>
+        <v>45932.826612847224</v>
       </c>
       <c r="J6" s="93"/>
     </row>
@@ -14852,7 +14895,7 @@
         <v>40373.583333333336</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="94">
         <f t="shared" si="1"/>
@@ -14867,7 +14910,7 @@
         <v>40374.083333333336</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" s="94">
         <f t="shared" si="1"/>
@@ -14880,7 +14923,7 @@
       </c>
       <c r="B9" s="95"/>
       <c r="C9" s="89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" s="96">
         <f t="shared" ref="D9:D13" si="2">A9</f>
@@ -14893,7 +14936,7 @@
       </c>
       <c r="B10" s="95"/>
       <c r="C10" s="89" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="2"/>
@@ -14906,7 +14949,7 @@
       </c>
       <c r="B11" s="95"/>
       <c r="C11" s="89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="98">
         <f t="shared" si="2"/>
@@ -14919,7 +14962,7 @@
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="89" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" s="99">
         <f t="shared" si="2"/>
@@ -14932,7 +14975,7 @@
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="100">
         <f t="shared" si="2"/>
@@ -14947,7 +14990,7 @@
         <v>18753.416666666668</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D14" s="98">
         <f t="shared" ref="D14:D15" si="3">B14-A14</f>
@@ -14962,7 +15005,7 @@
         <v>37597.416666666664</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="101">
         <f t="shared" si="3"/>
@@ -14975,7 +15018,7 @@
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="89" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="102">
         <f t="shared" ref="D16:D17" si="4">A16</f>
@@ -14988,7 +15031,7 @@
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="103">
         <f t="shared" si="4"/>
@@ -15003,7 +15046,7 @@
         <v>40373.090624999997</v>
       </c>
       <c r="C18" s="89" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="104">
         <f>B18-A18</f>
@@ -15016,7 +15059,7 @@
       </c>
       <c r="B19" s="95"/>
       <c r="C19" s="89" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="105">
         <f t="shared" ref="D19:D20" si="5">A19</f>
@@ -15029,7 +15072,7 @@
       </c>
       <c r="B20" s="107"/>
       <c r="C20" s="108" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="109">
         <f t="shared" si="5"/>

--- a/Intermedio/practice-files/Sesión 1/Formatos.xlsx
+++ b/Intermedio/practice-files/Sesión 1/Formatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA50595-709D-42F6-86B0-CB7195C21737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4336921-AFC7-40AA-8AA9-C5135D2DD218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="65">
+  <numFmts count="66">
     <numFmt numFmtId="164" formatCode="####.#"/>
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#.000"/>
@@ -539,7 +539,8 @@
     <numFmt numFmtId="225" formatCode="&quot;Monto acumulado: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
     <numFmt numFmtId="226" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
     <numFmt numFmtId="227" formatCode="&quot;Este &quot;\ @"/>
-    <numFmt numFmtId="232" formatCode="#.0000"/>
+    <numFmt numFmtId="228" formatCode="#.0000"/>
+    <numFmt numFmtId="229" formatCode="[Color10]General"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1607,7 +1608,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="218" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="219" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="220" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1628,6 +1628,11 @@
     <xf numFmtId="225" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="226" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="227" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="228" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1669,11 +1674,7 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="232" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="229" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2277,6 +2278,311 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893F2451-7D3E-CE88-61D5-9840A1FB8FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="695325"/>
+          <a:ext cx="1971675" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D970F6F-828B-9180-057E-DF6EB08DC988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="695325"/>
+          <a:ext cx="1971675" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B84A07-C96C-F2C2-CB98-95D4CF78AE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="695325"/>
+          <a:ext cx="1971675" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB730FD3-75AB-C6CF-3524-E34CF98BAFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="2647950"/>
+          <a:ext cx="1971675" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FCE03A-3188-34B2-EF7F-85C263DF8BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="2647950"/>
+          <a:ext cx="1971675" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2576,10 +2882,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2610,10 +2916,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="4">
@@ -2630,7 +2936,7 @@
       <c r="G3" s="8">
         <v>2765.85</v>
       </c>
-      <c r="H3" s="183">
+      <c r="H3" s="161">
         <f>G3</f>
         <v>2765.85</v>
       </c>
@@ -2651,7 +2957,7 @@
       <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="184">
+      <c r="H4" s="162">
         <f>G4</f>
         <v>0.5</v>
       </c>
@@ -2683,17 +2989,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="168"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="174"/>
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="4">
         <v>14</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="175" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15">
@@ -2706,31 +3012,31 @@
         <v>5412.6350000000002</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="172"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>5412.6350000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="173"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="174"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="A11" s="4">
         <v>28.568000000000001</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="175" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11:D13" si="2">A11</f>
         <v>28.568000000000001</v>
       </c>
-      <c r="E11" s="162" t="s">
+      <c r="E11" s="166" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="139">
@@ -2742,12 +3048,12 @@
         <v>256.52</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="174"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>256.52</v>
       </c>
-      <c r="E12" s="163"/>
+      <c r="E12" s="167"/>
       <c r="G12" s="139">
         <v>256.52</v>
       </c>
@@ -2757,21 +3063,21 @@
         <v>14.7</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="172"/>
+      <c r="C13" s="176"/>
       <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>14.7</v>
       </c>
-      <c r="E13" s="164"/>
+      <c r="E13" s="168"/>
       <c r="G13" s="139">
         <v>14.7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="168"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
       <c r="G14" s="139">
         <v>7</v>
       </c>
@@ -2781,24 +3087,24 @@
         <v>6.25</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="175" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="3">A15</f>
         <v>6.25</v>
       </c>
-      <c r="E15" s="162" t="s">
+      <c r="E15" s="166" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="139">
         <v>6.25</v>
       </c>
-      <c r="H15" s="186">
+      <c r="H15" s="164">
         <f>G15</f>
         <v>6.25</v>
       </c>
-      <c r="I15" s="187">
+      <c r="I15" s="165">
         <f>G15</f>
         <v>6.25</v>
       </c>
@@ -2808,37 +3114,37 @@
         <v>4.7</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="172"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="E16" s="164"/>
+      <c r="E16" s="168"/>
       <c r="G16" s="139">
         <v>4.7</v>
       </c>
-      <c r="H16" s="186">
+      <c r="H16" s="164">
         <f>G16</f>
         <v>4.7</v>
       </c>
       <c r="I16">
         <v>2.125</v>
       </c>
-      <c r="J16" s="186">
+      <c r="J16" s="164">
         <f>I16</f>
         <v>2.125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="168"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
       <c r="I17">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J17" s="186">
+      <c r="J17" s="164">
         <f>I17</f>
         <v>0.5</v>
       </c>
@@ -2855,10 +3161,10 @@
         <f t="shared" ref="D18:D22" si="4">A18</f>
         <v>1256</v>
       </c>
-      <c r="E18" s="162" t="s">
+      <c r="E18" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="185">
+      <c r="G18" s="163">
         <v>1256</v>
       </c>
     </row>
@@ -2874,7 +3180,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="167"/>
       <c r="G19" s="140">
         <v>1256</v>
       </c>
@@ -2891,7 +3197,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E20" s="163"/>
+      <c r="E20" s="167"/>
       <c r="G20" s="140">
         <v>1256</v>
       </c>
@@ -2908,7 +3214,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E21" s="163"/>
+      <c r="E21" s="167"/>
       <c r="G21" s="140">
         <v>1256</v>
       </c>
@@ -2925,7 +3231,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E22" s="164"/>
+      <c r="E22" s="168"/>
       <c r="G22" s="140">
         <v>1256</v>
       </c>
@@ -3925,7 +4231,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4018,13 +4323,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="149">
+      <c r="A10" s="148">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B10" s="149">
+      <c r="B10" s="148">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C10" s="150">
+      <c r="C10" s="149">
         <f>HOUR(B10-A10)*60+MINUTE(B10-A10)</f>
         <v>105</v>
       </c>
@@ -5051,7 +5356,7 @@
         <f t="shared" ref="B2:B5" si="0">A2</f>
         <v>14287</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="185" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5063,7 +5368,7 @@
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="178"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="125">
@@ -5073,7 +5378,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="125" t="s">
@@ -5083,43 +5388,43 @@
         <f t="shared" si="0"/>
         <v>verano</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="176"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="D8" s="153">
+      <c r="D8" s="152">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="D9" s="153">
+      <c r="D9" s="152">
         <v>-12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="D10" s="153">
+      <c r="D10" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="151">
+      <c r="A11" s="150">
         <v>100</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="153" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="151">
+      <c r="A12" s="150">
         <v>-20</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="151">
+      <c r="A13" s="150">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="151" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6231,7 +6536,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="186" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6243,49 +6548,49 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="C10" s="172"/>
+      <c r="C10" s="176"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="A13" s="155">
+      <c r="A13" s="154">
         <v>123564562</v>
       </c>
-      <c r="B13" s="156">
+      <c r="B13" s="155">
         <f>A13</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="155">
+      <c r="A14" s="154">
         <v>123564562</v>
       </c>
-      <c r="B14" s="157">
+      <c r="B14" s="156">
         <f>A14</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="155">
+      <c r="A15" s="154">
         <v>123564562</v>
       </c>
-      <c r="B15" s="159">
+      <c r="B15" s="158">
         <f>A15</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="155">
+      <c r="A16" s="154">
         <v>123564562</v>
       </c>
-      <c r="B16" s="160">
+      <c r="B16" s="159">
         <f>A16</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="161"/>
+      <c r="B17" s="160"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
@@ -8339,8 +8644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8398,7 +8703,7 @@
       <c r="C7" s="39">
         <v>100</v>
       </c>
-      <c r="F7" s="141">
+      <c r="F7" s="187">
         <v>123456</v>
       </c>
     </row>
@@ -9478,10 +9783,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="B8" s="142">
+      <c r="B8" s="141">
         <v>14</v>
       </c>
-      <c r="C8" s="142">
+      <c r="C8" s="141">
         <v>8</v>
       </c>
     </row>
@@ -10499,7 +10804,7 @@
       <c r="B3" s="49">
         <v>14287</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="142">
         <v>28145</v>
       </c>
     </row>
@@ -10507,7 +10812,7 @@
       <c r="B4" s="50">
         <v>240520</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="143">
         <v>236520</v>
       </c>
     </row>
@@ -11569,7 +11874,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="B9" s="145">
+      <c r="B9" s="144">
         <v>0.05</v>
       </c>
     </row>
@@ -13634,7 +13939,7 @@
         <f t="shared" ref="C2:C7" si="0">A2</f>
         <v>29781</v>
       </c>
-      <c r="F2" s="146">
+      <c r="F2" s="145">
         <f ca="1">TODAY()</f>
         <v>45932</v>
       </c>
@@ -13703,7 +14008,7 @@
       <c r="A8" s="70"/>
       <c r="B8" s="71"/>
       <c r="C8" s="72"/>
-      <c r="F8" s="147">
+      <c r="F8" s="146">
         <f ca="1">TODAY()</f>
         <v>45932</v>
       </c>
@@ -14804,14 +15109,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="177" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="183" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14822,8 +15127,8 @@
       <c r="B2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="184"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="83">
@@ -14881,9 +15186,9 @@
         <f t="shared" si="1"/>
         <v>0.95833333333575865</v>
       </c>
-      <c r="G6" s="148">
+      <c r="G6" s="147">
         <f ca="1">NOW()</f>
-        <v>45932.826612847224</v>
+        <v>45932.849178240744</v>
       </c>
       <c r="J6" s="93"/>
     </row>

--- a/Intermedio/practice-files/Sesión 1/Formatos.xlsx
+++ b/Intermedio/practice-files/Sesión 1/Formatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4336921-AFC7-40AA-8AA9-C5135D2DD218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E94275-1661-4350-B9B2-095BFDD4CCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
     <numFmt numFmtId="226" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
     <numFmt numFmtId="227" formatCode="&quot;Este &quot;\ @"/>
     <numFmt numFmtId="228" formatCode="#.0000"/>
-    <numFmt numFmtId="229" formatCode="[Color10]General"/>
+    <numFmt numFmtId="237" formatCode="[Color8]General"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1674,7 +1674,7 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="229" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="237" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8645,7 +8645,7 @@
   <dimension ref="B2:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8704,7 +8704,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="187">
-        <v>123456</v>
+        <v>123456.003</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="G6" s="147">
         <f ca="1">NOW()</f>
-        <v>45932.849178240744</v>
+        <v>45932.863622800927</v>
       </c>
       <c r="J6" s="93"/>
     </row>

--- a/Intermedio/practice-files/Sesión 1/Formatos.xlsx
+++ b/Intermedio/practice-files/Sesión 1/Formatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E94275-1661-4350-B9B2-095BFDD4CCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA7C0F-693E-47E7-B5F7-94E4D39F6D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="66">
+  <numFmts count="67">
     <numFmt numFmtId="164" formatCode="####.#"/>
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#.000"/>
@@ -540,7 +540,8 @@
     <numFmt numFmtId="226" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
     <numFmt numFmtId="227" formatCode="&quot;Este &quot;\ @"/>
     <numFmt numFmtId="228" formatCode="#.0000"/>
-    <numFmt numFmtId="237" formatCode="[Color8]General"/>
+    <numFmt numFmtId="230" formatCode="[Red][&lt;100]#,##0;[Blue][&gt;=100]#,##0"/>
+    <numFmt numFmtId="231" formatCode="[Red][&lt;0]#,##0;[Blue][&lt;=100]#,##0;[Green]#,##0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1608,7 +1609,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="218" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="219" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="220" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1674,7 +1674,8 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="237" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="230" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="231" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2916,10 +2917,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="4">
@@ -2936,7 +2937,7 @@
       <c r="G3" s="8">
         <v>2765.85</v>
       </c>
-      <c r="H3" s="161">
+      <c r="H3" s="160">
         <f>G3</f>
         <v>2765.85</v>
       </c>
@@ -2957,7 +2958,7 @@
       <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="161">
         <f>G4</f>
         <v>0.5</v>
       </c>
@@ -2989,17 +2990,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="4">
         <v>14</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="174" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15">
@@ -3012,31 +3013,31 @@
         <v>5412.6350000000002</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="176"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>5412.6350000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="177"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
+      <c r="A10" s="176"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="173"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="A11" s="4">
         <v>28.568000000000001</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="174" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11:D13" si="2">A11</f>
         <v>28.568000000000001</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="165" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="139">
@@ -3048,12 +3049,12 @@
         <v>256.52</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="178"/>
+      <c r="C12" s="177"/>
       <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>256.52</v>
       </c>
-      <c r="E12" s="167"/>
+      <c r="E12" s="166"/>
       <c r="G12" s="139">
         <v>256.52</v>
       </c>
@@ -3063,21 +3064,21 @@
         <v>14.7</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="176"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>14.7</v>
       </c>
-      <c r="E13" s="168"/>
+      <c r="E13" s="167"/>
       <c r="G13" s="139">
         <v>14.7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
       <c r="G14" s="139">
         <v>7</v>
       </c>
@@ -3087,24 +3088,24 @@
         <v>6.25</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="174" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="3">A15</f>
         <v>6.25</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="165" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="139">
         <v>6.25</v>
       </c>
-      <c r="H15" s="164">
+      <c r="H15" s="163">
         <f>G15</f>
         <v>6.25</v>
       </c>
-      <c r="I15" s="165">
+      <c r="I15" s="164">
         <f>G15</f>
         <v>6.25</v>
       </c>
@@ -3114,37 +3115,37 @@
         <v>4.7</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="176"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="E16" s="168"/>
+      <c r="E16" s="167"/>
       <c r="G16" s="139">
         <v>4.7</v>
       </c>
-      <c r="H16" s="164">
+      <c r="H16" s="163">
         <f>G16</f>
         <v>4.7</v>
       </c>
       <c r="I16">
         <v>2.125</v>
       </c>
-      <c r="J16" s="164">
+      <c r="J16" s="163">
         <f>I16</f>
         <v>2.125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="I17">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J17" s="164">
+      <c r="J17" s="163">
         <f>I17</f>
         <v>0.5</v>
       </c>
@@ -3161,10 +3162,10 @@
         <f t="shared" ref="D18:D22" si="4">A18</f>
         <v>1256</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="163">
+      <c r="G18" s="162">
         <v>1256</v>
       </c>
     </row>
@@ -3180,7 +3181,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E19" s="167"/>
+      <c r="E19" s="166"/>
       <c r="G19" s="140">
         <v>1256</v>
       </c>
@@ -3197,7 +3198,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E20" s="167"/>
+      <c r="E20" s="166"/>
       <c r="G20" s="140">
         <v>1256</v>
       </c>
@@ -3214,7 +3215,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E21" s="167"/>
+      <c r="E21" s="166"/>
       <c r="G21" s="140">
         <v>1256</v>
       </c>
@@ -3231,7 +3232,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E22" s="168"/>
+      <c r="E22" s="167"/>
       <c r="G22" s="140">
         <v>1256</v>
       </c>
@@ -4323,13 +4324,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="148">
+      <c r="A10" s="147">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="147">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C10" s="149">
+      <c r="C10" s="148">
         <f>HOUR(B10-A10)*60+MINUTE(B10-A10)</f>
         <v>105</v>
       </c>
@@ -5356,7 +5357,7 @@
         <f t="shared" ref="B2:B5" si="0">A2</f>
         <v>14287</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="184" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5368,7 +5369,7 @@
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="C3" s="178"/>
+      <c r="C3" s="177"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="125">
@@ -5378,7 +5379,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="177"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="125" t="s">
@@ -5388,43 +5389,43 @@
         <f t="shared" si="0"/>
         <v>verano</v>
       </c>
-      <c r="C5" s="176"/>
+      <c r="C5" s="175"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="D8" s="152">
+      <c r="D8" s="151">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <v>-12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="D10" s="152">
+      <c r="D10" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="150">
+      <c r="A11" s="149">
         <v>100</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="152" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="150">
+      <c r="A12" s="149">
         <v>-20</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="150">
+      <c r="A13" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="150" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6536,7 +6537,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="185" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6548,49 +6549,49 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="C10" s="176"/>
+      <c r="C10" s="175"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="A13" s="154">
+      <c r="A13" s="153">
         <v>123564562</v>
       </c>
-      <c r="B13" s="155">
+      <c r="B13" s="154">
         <f>A13</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="154">
+      <c r="A14" s="153">
         <v>123564562</v>
       </c>
-      <c r="B14" s="156">
+      <c r="B14" s="155">
         <f>A14</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="154">
+      <c r="A15" s="153">
         <v>123564562</v>
       </c>
-      <c r="B15" s="158">
+      <c r="B15" s="157">
         <f>A15</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="154">
+      <c r="A16" s="153">
         <v>123564562</v>
       </c>
-      <c r="B16" s="159">
+      <c r="B16" s="158">
         <f>A16</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="160"/>
+      <c r="B17" s="159"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
@@ -8644,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8703,7 +8704,7 @@
       <c r="C7" s="39">
         <v>100</v>
       </c>
-      <c r="F7" s="187">
+      <c r="F7" s="186">
         <v>123456.003</v>
       </c>
     </row>
@@ -8714,6 +8715,9 @@
       <c r="C8" s="40">
         <v>100</v>
       </c>
+      <c r="F8" s="186">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="34" t="s">
@@ -8721,6 +8725,19 @@
       </c>
       <c r="C9" s="41">
         <v>100</v>
+      </c>
+      <c r="F9" s="186">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1">
+      <c r="F10" s="186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1">
+      <c r="F11" s="186">
+        <v>200</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9713,8 +9730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9783,10 +9800,58 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="B8" s="141">
+      <c r="B8" s="187">
+        <v>-10</v>
+      </c>
+      <c r="C8" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="B9" s="187">
+        <v>50</v>
+      </c>
+      <c r="C9" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="B10" s="187">
+        <v>80</v>
+      </c>
+      <c r="C10" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="B11" s="187">
+        <v>200</v>
+      </c>
+      <c r="C11" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="B12" s="187">
+        <v>100</v>
+      </c>
+      <c r="C12" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="B13" s="187">
         <v>14</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C13" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="B14" s="187">
+        <v>14</v>
+      </c>
+      <c r="C14" s="187">
         <v>8</v>
       </c>
     </row>
@@ -10804,7 +10869,7 @@
       <c r="B3" s="49">
         <v>14287</v>
       </c>
-      <c r="C3" s="142">
+      <c r="C3" s="141">
         <v>28145</v>
       </c>
     </row>
@@ -10812,7 +10877,7 @@
       <c r="B4" s="50">
         <v>240520</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="142">
         <v>236520</v>
       </c>
     </row>
@@ -11874,7 +11939,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="B9" s="144">
+      <c r="B9" s="143">
         <v>0.05</v>
       </c>
     </row>
@@ -13939,7 +14004,7 @@
         <f t="shared" ref="C2:C7" si="0">A2</f>
         <v>29781</v>
       </c>
-      <c r="F2" s="145">
+      <c r="F2" s="144">
         <f ca="1">TODAY()</f>
         <v>45932</v>
       </c>
@@ -14008,7 +14073,7 @@
       <c r="A8" s="70"/>
       <c r="B8" s="71"/>
       <c r="C8" s="72"/>
-      <c r="F8" s="146">
+      <c r="F8" s="145">
         <f ca="1">TODAY()</f>
         <v>45932</v>
       </c>
@@ -15109,14 +15174,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="181" t="s">
+      <c r="B1" s="179"/>
+      <c r="C1" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="182" t="s">
         <v>48</v>
       </c>
     </row>
@@ -15127,8 +15192,8 @@
       <c r="B2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="184"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="183"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="83">
@@ -15186,9 +15251,9 @@
         <f t="shared" si="1"/>
         <v>0.95833333333575865</v>
       </c>
-      <c r="G6" s="147">
+      <c r="G6" s="146">
         <f ca="1">NOW()</f>
-        <v>45932.863622800927</v>
+        <v>45932.88405763889</v>
       </c>
       <c r="J6" s="93"/>
     </row>

--- a/Intermedio/practice-files/Sesión 1/Formatos.xlsx
+++ b/Intermedio/practice-files/Sesión 1/Formatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA7C0F-693E-47E7-B5F7-94E4D39F6D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14E5CF-A9E1-47F9-BA81-D372C4BA0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>A</t>
   </si>
@@ -469,12 +469,19 @@
       <t>* #,##0.00</t>
     </r>
   </si>
+  <si>
+    <t>S/. 14,287.00</t>
+  </si>
+  <si>
+    <t>¥28,145.00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="67">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="####.#"/>
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#.000"/>
@@ -531,7 +538,6 @@
     <numFmt numFmtId="217" formatCode="000\ &quot;Unidades&quot;"/>
     <numFmt numFmtId="218" formatCode="&quot;S/.&quot;*-\-\-\-\-\-\-\-#\ ###.00"/>
     <numFmt numFmtId="219" formatCode="[$¥-804]#,##0.00"/>
-    <numFmt numFmtId="220" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="221" formatCode="[Blue]\(#.##000_);[Red]\(#.##000\);&quot;Nada&quot;;&quot;Descuento de &quot;@"/>
     <numFmt numFmtId="222" formatCode="[Blue]\(#\ ###.00\);[Red]\(#\ ###.00\);&quot;NADA&quot;;&quot;DESCUENTO DE&quot;@"/>
     <numFmt numFmtId="223" formatCode="&quot;Recibi la cantidad de: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
@@ -540,10 +546,10 @@
     <numFmt numFmtId="226" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
     <numFmt numFmtId="227" formatCode="&quot;Este &quot;\ @"/>
     <numFmt numFmtId="228" formatCode="#.0000"/>
-    <numFmt numFmtId="230" formatCode="[Red][&lt;100]#,##0;[Blue][&gt;=100]#,##0"/>
-    <numFmt numFmtId="231" formatCode="[Red][&lt;0]#,##0;[Blue][&lt;=100]#,##0;[Green]#,##0"/>
+    <numFmt numFmtId="229" formatCode="[Red][&lt;100]#,##0;[Blue][&gt;=100]#,##0"/>
+    <numFmt numFmtId="230" formatCode="[Red][&lt;0]#,##0;[Blue][&lt;=100]#,##0;[Green]#,##0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,8 +704,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +834,20 @@
         <bgColor rgb="FF4F6128"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F111A"/>
+        <bgColor rgb="FFEAF1DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1285,11 +1323,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1400,12 +1449,6 @@
     <xf numFmtId="185" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1609,8 +1652,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="218" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="219" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="220" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1633,6 +1674,8 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="229" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="230" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1674,14 +1717,38 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="230" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="231" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="219" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="25" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="25" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0F111A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2917,10 +2984,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="4">
@@ -2937,7 +3004,7 @@
       <c r="G3" s="8">
         <v>2765.85</v>
       </c>
-      <c r="H3" s="160">
+      <c r="H3" s="154">
         <f>G3</f>
         <v>2765.85</v>
       </c>
@@ -2954,11 +3021,11 @@
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
-      <c r="E4" s="138"/>
+      <c r="E4" s="134"/>
       <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="161">
+      <c r="H4" s="155">
         <f>G4</f>
         <v>0.5</v>
       </c>
@@ -2990,17 +3057,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="171"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="4">
         <v>14</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="170" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15">
@@ -3013,34 +3080,34 @@
         <v>5412.6350000000002</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="175"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>5412.6350000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="173"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="169"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="A11" s="4">
         <v>28.568000000000001</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="170" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11:D13" si="2">A11</f>
         <v>28.568000000000001</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="135">
         <v>28.568000000000001</v>
       </c>
     </row>
@@ -3049,13 +3116,13 @@
         <v>256.52</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="177"/>
+      <c r="C12" s="173"/>
       <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>256.52</v>
       </c>
-      <c r="E12" s="166"/>
-      <c r="G12" s="139">
+      <c r="E12" s="162"/>
+      <c r="G12" s="135">
         <v>256.52</v>
       </c>
     </row>
@@ -3064,22 +3131,22 @@
         <v>14.7</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="175"/>
+      <c r="C13" s="171"/>
       <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>14.7</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="G13" s="139">
+      <c r="E13" s="163"/>
+      <c r="G13" s="135">
         <v>14.7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="171"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
-      <c r="G14" s="139">
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+      <c r="G14" s="135">
         <v>7</v>
       </c>
     </row>
@@ -3088,24 +3155,24 @@
         <v>6.25</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="170" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="3">A15</f>
         <v>6.25</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="135">
         <v>6.25</v>
       </c>
-      <c r="H15" s="163">
+      <c r="H15" s="157">
         <f>G15</f>
         <v>6.25</v>
       </c>
-      <c r="I15" s="164">
+      <c r="I15" s="158">
         <f>G15</f>
         <v>6.25</v>
       </c>
@@ -3115,37 +3182,37 @@
         <v>4.7</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="175"/>
+      <c r="C16" s="171"/>
       <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="G16" s="139">
+      <c r="E16" s="163"/>
+      <c r="G16" s="135">
         <v>4.7</v>
       </c>
-      <c r="H16" s="163">
+      <c r="H16" s="157">
         <f>G16</f>
         <v>4.7</v>
       </c>
       <c r="I16">
         <v>2.125</v>
       </c>
-      <c r="J16" s="163">
+      <c r="J16" s="157">
         <f>I16</f>
         <v>2.125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="171"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
       <c r="I17">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J17" s="163">
+      <c r="J17" s="157">
         <f>I17</f>
         <v>0.5</v>
       </c>
@@ -3162,10 +3229,10 @@
         <f t="shared" ref="D18:D22" si="4">A18</f>
         <v>1256</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="156">
         <v>1256</v>
       </c>
     </row>
@@ -3181,8 +3248,8 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E19" s="166"/>
-      <c r="G19" s="140">
+      <c r="E19" s="162"/>
+      <c r="G19" s="136">
         <v>1256</v>
       </c>
     </row>
@@ -3198,8 +3265,8 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E20" s="166"/>
-      <c r="G20" s="140">
+      <c r="E20" s="162"/>
+      <c r="G20" s="136">
         <v>1256</v>
       </c>
     </row>
@@ -3215,8 +3282,8 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="G21" s="140">
+      <c r="E21" s="162"/>
+      <c r="G21" s="136">
         <v>1256</v>
       </c>
     </row>
@@ -3232,8 +3299,8 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E22" s="167"/>
-      <c r="G22" s="140">
+      <c r="E22" s="163"/>
+      <c r="G22" s="136">
         <v>1256</v>
       </c>
     </row>
@@ -4253,84 +4320,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="109" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="114">
+      <c r="A2" s="110">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="111">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C2" s="116">
+      <c r="C2" s="112">
         <f t="shared" ref="C2:C4" si="0">HOUR(B2-A2)*60+MINUTE(B2-A2)</f>
         <v>120</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="114" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="114">
+      <c r="A3" s="110">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="111">
         <v>0.67847222222222225</v>
       </c>
-      <c r="C3" s="116">
+      <c r="C3" s="112">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="114" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="119">
+      <c r="A4" s="115">
         <v>0.68541666666666667</v>
       </c>
-      <c r="B4" s="120">
+      <c r="B4" s="116">
         <v>0.81666666666666676</v>
       </c>
-      <c r="C4" s="121">
+      <c r="C4" s="117">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="119" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="147">
+      <c r="A10" s="141">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B10" s="147">
+      <c r="B10" s="141">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="142">
         <f>HOUR(B10-A10)*60+MINUTE(B10-A10)</f>
         <v>105</v>
       </c>
@@ -5339,93 +5406,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="120" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="125">
+      <c r="A2" s="121">
         <v>14287</v>
       </c>
-      <c r="B2" s="126">
+      <c r="B2" s="122">
         <f t="shared" ref="B2:B5" si="0">A2</f>
         <v>14287</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="180" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="125">
+      <c r="A3" s="121">
         <v>-14</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="122">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="125">
+      <c r="A4" s="121">
         <v>0</v>
       </c>
-      <c r="B4" s="126">
+      <c r="B4" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="126" t="str">
+      <c r="B5" s="122" t="str">
         <f t="shared" si="0"/>
         <v>verano</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="171"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="D8" s="151">
+      <c r="D8" s="145">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="D9" s="151">
+      <c r="D9" s="145">
         <v>-12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="D10" s="151">
+      <c r="D10" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="149">
+      <c r="A11" s="143">
         <v>100</v>
       </c>
-      <c r="D11" s="152" t="s">
+      <c r="D11" s="146" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="149">
+      <c r="A12" s="143">
         <v>-20</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="149">
+      <c r="A13" s="143">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="144" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6435,163 +6502,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="123" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="128">
+      <c r="A2" s="124">
         <v>1250</v>
       </c>
-      <c r="B2" s="129">
+      <c r="B2" s="125">
         <f t="shared" ref="B2:B10" si="0">A2</f>
         <v>1250</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="126" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="128">
+      <c r="A3" s="124">
         <v>45</v>
       </c>
-      <c r="B3" s="131">
+      <c r="B3" s="127">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="126" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="128">
+      <c r="A4" s="124">
         <v>120</v>
       </c>
-      <c r="B4" s="132">
+      <c r="B4" s="128">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="126" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="128">
+      <c r="A5" s="124">
         <v>1428</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="129">
         <f t="shared" si="0"/>
         <v>1428</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="126" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="128">
+      <c r="A6" s="124">
         <v>28</v>
       </c>
-      <c r="B6" s="134">
+      <c r="B6" s="130">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="126" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="128">
+      <c r="A7" s="124">
         <v>25.6</v>
       </c>
-      <c r="B7" s="135">
+      <c r="B7" s="131">
         <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="126" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="128">
+      <c r="A8" s="124">
         <v>14</v>
       </c>
-      <c r="B8" s="136">
+      <c r="B8" s="132">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="126" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="128">
+      <c r="A9" s="124">
         <v>100</v>
       </c>
-      <c r="B9" s="137">
+      <c r="B9" s="133">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="181" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="128">
+      <c r="A10" s="124">
         <v>-100</v>
       </c>
-      <c r="B10" s="137">
+      <c r="B10" s="133">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="C10" s="175"/>
+      <c r="C10" s="171"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="A13" s="153">
+      <c r="A13" s="147">
         <v>123564562</v>
       </c>
-      <c r="B13" s="154">
+      <c r="B13" s="148">
         <f>A13</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="153">
+      <c r="A14" s="147">
         <v>123564562</v>
       </c>
-      <c r="B14" s="155">
+      <c r="B14" s="149">
         <f>A14</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="153">
+      <c r="A15" s="147">
         <v>123564562</v>
       </c>
-      <c r="B15" s="157">
+      <c r="B15" s="151">
         <f>A15</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="147">
         <v>123564562</v>
       </c>
-      <c r="B16" s="158">
+      <c r="B16" s="152">
         <f>A16</f>
         <v>123564562</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="159"/>
+      <c r="B17" s="153"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
@@ -8704,7 +8771,7 @@
       <c r="C7" s="39">
         <v>100</v>
       </c>
-      <c r="F7" s="186">
+      <c r="F7" s="159">
         <v>123456.003</v>
       </c>
     </row>
@@ -8715,7 +8782,7 @@
       <c r="C8" s="40">
         <v>100</v>
       </c>
-      <c r="F8" s="186">
+      <c r="F8" s="159">
         <v>10</v>
       </c>
     </row>
@@ -8726,17 +8793,17 @@
       <c r="C9" s="41">
         <v>100</v>
       </c>
-      <c r="F9" s="186">
+      <c r="F9" s="159">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1">
-      <c r="F10" s="186">
+      <c r="F10" s="159">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1">
-      <c r="F11" s="186">
+      <c r="F11" s="159">
         <v>200</v>
       </c>
     </row>
@@ -9730,7 +9797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9800,58 +9867,58 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="B8" s="187">
+      <c r="B8" s="160">
         <v>-10</v>
       </c>
-      <c r="C8" s="187">
+      <c r="C8" s="160">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="B9" s="187">
+      <c r="B9" s="160">
         <v>50</v>
       </c>
-      <c r="C9" s="187">
+      <c r="C9" s="160">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="B10" s="187">
+      <c r="B10" s="160">
         <v>80</v>
       </c>
-      <c r="C10" s="187">
+      <c r="C10" s="160">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="B11" s="187">
+      <c r="B11" s="160">
         <v>200</v>
       </c>
-      <c r="C11" s="187">
+      <c r="C11" s="160">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="B12" s="187">
+      <c r="B12" s="160">
         <v>100</v>
       </c>
-      <c r="C12" s="187">
+      <c r="C12" s="160">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="B13" s="187">
+      <c r="B13" s="160">
         <v>14</v>
       </c>
-      <c r="C13" s="187">
+      <c r="C13" s="160">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="B14" s="187">
+      <c r="B14" s="160">
         <v>14</v>
       </c>
-      <c r="C14" s="187">
+      <c r="C14" s="160">
         <v>8</v>
       </c>
     </row>
@@ -10845,8 +10912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10858,34 +10925,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="63.75" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="182" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="49">
-        <v>14287</v>
-      </c>
-      <c r="C3" s="141">
-        <v>28145</v>
+      <c r="B3" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="184" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="50">
+      <c r="B4" s="185">
         <v>240520</v>
       </c>
-      <c r="C4" s="142">
+      <c r="C4" s="188">
         <v>236520</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="51">
+      <c r="B5" s="186">
         <v>120</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="187">
         <v>147</v>
       </c>
     </row>
@@ -11892,54 +11959,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="51">
         <f t="shared" ref="C2:C4" si="0">A2</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="53">
+      <c r="A3" s="49">
         <v>2.14</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="52">
         <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="53">
+      <c r="A4" s="49">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="53">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="B9" s="143">
+      <c r="B9" s="137">
         <v>0.05</v>
       </c>
     </row>
@@ -12933,7 +13000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12943,10 +13012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12954,18 +13023,18 @@
       <c r="A2" s="19">
         <v>300000</v>
       </c>
-      <c r="B2" s="58">
-        <f t="shared" ref="B2:B4" si="0">A2</f>
+      <c r="B2" s="54">
+        <f>A2</f>
         <v>300000</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19">
         <v>452</v>
       </c>
-      <c r="B3" s="60">
-        <f t="shared" si="0"/>
+      <c r="B3" s="56">
+        <f t="shared" ref="B2:B4" si="0">A3</f>
         <v>452</v>
       </c>
     </row>
@@ -12973,7 +13042,7 @@
       <c r="A4" s="19">
         <v>14280000</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="56">
         <f t="shared" si="0"/>
         <v>14280000</v>
       </c>
@@ -13983,186 +14052,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="59" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="64">
+      <c r="A2" s="60">
         <v>29781</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="62">
         <f t="shared" ref="C2:C7" si="0">A2</f>
         <v>29781</v>
       </c>
-      <c r="F2" s="144">
+      <c r="F2" s="138">
         <f ca="1">TODAY()</f>
         <v>45932</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64">
+      <c r="A3" s="60">
         <v>29934</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="62">
         <f t="shared" si="0"/>
         <v>29934</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64">
+      <c r="A4" s="60">
         <v>29934</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="62">
         <f t="shared" si="0"/>
         <v>29934</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64">
+      <c r="A5" s="60">
         <v>29934</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="63">
         <f t="shared" si="0"/>
         <v>29934</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64">
+      <c r="A6" s="60">
         <v>29934</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="64">
         <f t="shared" si="0"/>
         <v>29934</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64">
+      <c r="A7" s="60">
         <v>29934</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="65">
         <f t="shared" si="0"/>
         <v>29934</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="F8" s="145">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="F8" s="139">
         <f ca="1">TODAY()</f>
         <v>45932</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64">
+      <c r="A9" s="60">
         <v>30658</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="69">
         <f t="shared" ref="C9:C13" si="1">A9</f>
         <v>30658</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="64">
+      <c r="A10" s="60">
         <v>30678</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="69">
         <f t="shared" si="1"/>
         <v>30678</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="64">
+      <c r="A11" s="60">
         <v>30678</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="70">
         <f t="shared" si="1"/>
         <v>30678</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="64">
+      <c r="A12" s="60">
         <v>30678</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="71">
         <f t="shared" si="1"/>
         <v>30678</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="64">
+      <c r="A13" s="60">
         <v>30678</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="72">
         <f t="shared" si="1"/>
         <v>30678</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="64">
+      <c r="A15" s="60">
         <v>40519</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="73">
         <f t="shared" ref="C15:C16" si="2">A15</f>
         <v>40519</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="78">
+      <c r="A16" s="74">
         <v>40519</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="76">
         <f t="shared" si="2"/>
         <v>40519</v>
       </c>
@@ -15174,277 +15243,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="180" t="s">
+      <c r="B1" s="175"/>
+      <c r="C1" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="182" t="s">
+      <c r="D1" s="178" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="179"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="83">
+      <c r="A3" s="79">
         <v>29781.354166666668</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="82">
         <f t="shared" ref="D3:D4" si="0">A3</f>
         <v>29781.354166666668</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="87">
+      <c r="A4" s="83">
         <v>29781.354166666668</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="86">
         <f t="shared" si="0"/>
         <v>29781.354166666668</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="87">
+      <c r="A5" s="83">
         <v>40373.041666666664</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="87">
         <v>40374.083333333336</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="88">
         <f t="shared" ref="D5:D8" si="1">B5-A5</f>
         <v>1.0416666666715173</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="87">
+      <c r="A6" s="83">
         <v>40373.125</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="87">
         <v>40374.083333333336</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="88">
         <f t="shared" si="1"/>
         <v>0.95833333333575865</v>
       </c>
-      <c r="G6" s="146">
+      <c r="G6" s="140">
         <f ca="1">NOW()</f>
-        <v>45932.88405763889</v>
-      </c>
-      <c r="J6" s="93"/>
+        <v>45932.900101041669</v>
+      </c>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="87">
+      <c r="A7" s="83">
         <v>40373.125</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="87">
         <v>40373.583333333336</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="90">
         <f t="shared" si="1"/>
         <v>0.45833333333575865</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="87">
+      <c r="A8" s="83">
         <v>40373.125</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="87">
         <v>40374.083333333336</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="90">
         <f t="shared" si="1"/>
         <v>0.95833333333575865</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="87">
+      <c r="A9" s="83">
         <v>30678.354166666668</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="92">
         <f t="shared" ref="D9:D13" si="2">A9</f>
         <v>30678.354166666668</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="87">
+      <c r="A10" s="83">
         <v>30678.354166666668</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="93">
         <f t="shared" si="2"/>
         <v>30678.354166666668</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="87">
+      <c r="A11" s="83">
         <v>30678.357638888891</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="94">
         <f t="shared" si="2"/>
         <v>30678.357638888891</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="87">
+      <c r="A12" s="83">
         <v>30678.357638888891</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="95">
         <f t="shared" si="2"/>
         <v>30678.357638888891</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="87">
+      <c r="A13" s="83">
         <v>18772.339583333334</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="96">
         <f t="shared" si="2"/>
         <v>18772.339583333334</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="87">
+      <c r="A14" s="83">
         <v>18753.333333333332</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="87">
         <v>18753.416666666668</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="94">
         <f t="shared" ref="D14:D15" si="3">B14-A14</f>
         <v>8.3333333335758653E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="87">
+      <c r="A15" s="83">
         <v>37597.333333333336</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="87">
         <v>37597.416666666664</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="97">
         <f t="shared" si="3"/>
         <v>8.3333333328482695E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="87">
+      <c r="A16" s="83">
         <v>40184.362604166665</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="98">
         <f t="shared" ref="D16:D17" si="4">A16</f>
         <v>40184.362604166665</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="87">
+      <c r="A17" s="83">
         <v>40184.362673611111</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D17" s="99">
         <f t="shared" si="4"/>
         <v>40184.362673611111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="87">
+      <c r="A18" s="83">
         <v>40373.090370370373</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="87">
         <v>40373.090624999997</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="100">
         <f>B18-A18</f>
         <v>2.5462962366873398E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="87">
+      <c r="A19" s="83">
         <v>40184.362673611111</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="101">
         <f t="shared" ref="D19:D20" si="5">A19</f>
         <v>40184.362673611111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="106">
+      <c r="A20" s="102">
         <v>40184.862673611111</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="105">
         <f t="shared" si="5"/>
         <v>40184.862673611111</v>
       </c>

--- a/Intermedio/practice-files/Sesión 1/Formatos.xlsx
+++ b/Intermedio/practice-files/Sesión 1/Formatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14E5CF-A9E1-47F9-BA81-D372C4BA0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C3840-138B-4A4E-AD91-0B2F6211BAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,16 +560,16 @@
     <numFmt numFmtId="217" formatCode="000\ &quot;Unidades&quot;"/>
     <numFmt numFmtId="218" formatCode="&quot;S/.&quot;*-\-\-\-\-\-\-\-#\ ###.00"/>
     <numFmt numFmtId="219" formatCode="[$¥-804]#,##0.00"/>
-    <numFmt numFmtId="221" formatCode="[Blue]\(#.##000_);[Red]\(#.##000\);&quot;Nada&quot;;&quot;Descuento de &quot;@"/>
-    <numFmt numFmtId="222" formatCode="[Blue]\(#\ ###.00\);[Red]\(#\ ###.00\);&quot;NADA&quot;;&quot;DESCUENTO DE&quot;@"/>
-    <numFmt numFmtId="223" formatCode="&quot;Recibi la cantidad de: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
-    <numFmt numFmtId="224" formatCode="&quot;El formato personalizado me permite hacer esto: &quot;#\ ###\ ###.00\ &quot;Soles&quot;"/>
-    <numFmt numFmtId="225" formatCode="&quot;Monto acumulado: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
-    <numFmt numFmtId="226" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
-    <numFmt numFmtId="227" formatCode="&quot;Este &quot;\ @"/>
-    <numFmt numFmtId="228" formatCode="#.0000"/>
-    <numFmt numFmtId="229" formatCode="[Red][&lt;100]#,##0;[Blue][&gt;=100]#,##0"/>
-    <numFmt numFmtId="230" formatCode="[Red][&lt;0]#,##0;[Blue][&lt;=100]#,##0;[Green]#,##0"/>
+    <numFmt numFmtId="220" formatCode="[Blue]\(#.##000_);[Red]\(#.##000\);&quot;Nada&quot;;&quot;Descuento de &quot;@"/>
+    <numFmt numFmtId="221" formatCode="[Blue]\(#\ ###.00\);[Red]\(#\ ###.00\);&quot;NADA&quot;;&quot;DESCUENTO DE&quot;@"/>
+    <numFmt numFmtId="222" formatCode="&quot;Recibi la cantidad de: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
+    <numFmt numFmtId="223" formatCode="&quot;El formato personalizado me permite hacer esto: &quot;#\ ###\ ###.00\ &quot;Soles&quot;"/>
+    <numFmt numFmtId="224" formatCode="&quot;Monto acumulado: &quot;#\ ###\ ##0.00\ &quot;Soles&quot;"/>
+    <numFmt numFmtId="225" formatCode="&quot;Formato Personalizado: &quot;#\ ###\ ###.00\ &quot;Soles mi hermano&quot;"/>
+    <numFmt numFmtId="226" formatCode="&quot;Este &quot;\ @"/>
+    <numFmt numFmtId="227" formatCode="#.0000"/>
+    <numFmt numFmtId="228" formatCode="[Red][&lt;100]#,##0;[Blue][&gt;=100]#,##0"/>
+    <numFmt numFmtId="229" formatCode="[Red][&lt;0]#,##0;[Blue][&lt;=100]#,##0;[Green]#,##0"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1658,24 +1680,45 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="220" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="220" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="221" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="221" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="222" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="222" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="223" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="223" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="224" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="225" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="226" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="227" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="228" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="225" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="226" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="227" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="228" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="229" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="230" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="219" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="25" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="25" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1716,27 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="219" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="25" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="25" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2984,10 +3006,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="166"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="4">
@@ -3057,17 +3079,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="4">
         <v>14</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="177" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15">
@@ -3080,31 +3102,31 @@
         <v>5412.6350000000002</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="171"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>5412.6350000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="172"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="A11" s="4">
         <v>28.568000000000001</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="177" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11:D13" si="2">A11</f>
         <v>28.568000000000001</v>
       </c>
-      <c r="E11" s="161" t="s">
+      <c r="E11" s="168" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="135">
@@ -3116,12 +3138,12 @@
         <v>256.52</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="173"/>
+      <c r="C12" s="180"/>
       <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>256.52</v>
       </c>
-      <c r="E12" s="162"/>
+      <c r="E12" s="169"/>
       <c r="G12" s="135">
         <v>256.52</v>
       </c>
@@ -3131,21 +3153,21 @@
         <v>14.7</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="171"/>
+      <c r="C13" s="178"/>
       <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>14.7</v>
       </c>
-      <c r="E13" s="163"/>
+      <c r="E13" s="170"/>
       <c r="G13" s="135">
         <v>14.7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="G14" s="135">
         <v>7</v>
       </c>
@@ -3155,14 +3177,14 @@
         <v>6.25</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="177" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="3">A15</f>
         <v>6.25</v>
       </c>
-      <c r="E15" s="161" t="s">
+      <c r="E15" s="168" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="135">
@@ -3182,12 +3204,12 @@
         <v>4.7</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="171"/>
+      <c r="C16" s="178"/>
       <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="E16" s="163"/>
+      <c r="E16" s="170"/>
       <c r="G16" s="135">
         <v>4.7</v>
       </c>
@@ -3204,10 +3226,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="167"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="I17">
         <f>0.5</f>
         <v>0.5</v>
@@ -3229,7 +3251,7 @@
         <f t="shared" ref="D18:D22" si="4">A18</f>
         <v>1256</v>
       </c>
-      <c r="E18" s="161" t="s">
+      <c r="E18" s="168" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="156">
@@ -3248,7 +3270,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E19" s="162"/>
+      <c r="E19" s="169"/>
       <c r="G19" s="136">
         <v>1256</v>
       </c>
@@ -3265,7 +3287,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E20" s="162"/>
+      <c r="E20" s="169"/>
       <c r="G20" s="136">
         <v>1256</v>
       </c>
@@ -3282,7 +3304,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E21" s="162"/>
+      <c r="E21" s="169"/>
       <c r="G21" s="136">
         <v>1256</v>
       </c>
@@ -3299,7 +3321,7 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="E22" s="163"/>
+      <c r="E22" s="170"/>
       <c r="G22" s="136">
         <v>1256</v>
       </c>
@@ -4306,14 +4328,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="26" width="10.7109375" customWidth="1"/>
@@ -4388,6 +4410,24 @@
       </c>
       <c r="E4" s="119" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="C5" cm="1">
+        <f t="array" ref="C5:D5">HOUR(A2:B2)</f>
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="C6" s="141" cm="1">
+        <f t="array" ref="C6:D6">HOUR(A2:B2)*60</f>
+        <v>840</v>
+      </c>
+      <c r="D6">
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -5424,7 +5464,7 @@
         <f t="shared" ref="B2:B5" si="0">A2</f>
         <v>14287</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="187" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5436,7 +5476,7 @@
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="180"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="121">
@@ -5446,7 +5486,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="180"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="121" t="s">
@@ -5456,7 +5496,7 @@
         <f t="shared" si="0"/>
         <v>verano</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="D8" s="145">
@@ -6604,7 +6644,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="188" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6616,7 +6656,7 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="178"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="147">
@@ -10925,34 +10965,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="63.75" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="161" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="163" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="185">
+      <c r="B4" s="164">
         <v>240520</v>
       </c>
-      <c r="C4" s="188">
+      <c r="C4" s="167">
         <v>236520</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="186">
+      <c r="B5" s="165">
         <v>120</v>
       </c>
-      <c r="C5" s="187">
+      <c r="C5" s="166">
         <v>147</v>
       </c>
     </row>
@@ -13000,7 +13040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13034,7 +13074,7 @@
         <v>452</v>
       </c>
       <c r="B3" s="56">
-        <f t="shared" ref="B2:B4" si="0">A3</f>
+        <f t="shared" ref="B3:B4" si="0">A3</f>
         <v>452</v>
       </c>
     </row>
@@ -15243,14 +15283,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="176" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="185" t="s">
         <v>48</v>
       </c>
     </row>
@@ -15261,8 +15301,8 @@
       <c r="B2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="79">
@@ -15322,7 +15362,7 @@
       </c>
       <c r="G6" s="140">
         <f ca="1">NOW()</f>
-        <v>45932.900101041669</v>
+        <v>45932.94818796296</v>
       </c>
       <c r="J6" s="89"/>
     </row>
